--- a/biology/Zoologie/Drinker/Drinker.xlsx
+++ b/biology/Zoologie/Drinker/Drinker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drinker est un genre de dinosaures ornithopodes de la famille des Hypsilophodontidae qui vivait pendant la période Jurassique, en Amérique du Nord. Relativement petit, Drinker mesurait approximativement 2 m de long et pesait 30 kg. C'était un végétivore bipède qui vivait dans les marais au côté des sauropodes géants, et était la proie de carnivores comme Allosaurus ou Ceratosaurus[réf. nécessaire].
 Le spécimen découvert par Robert Bakker a été nommé Drinker nisti (seule espèce connue), d'après le célèbre paléontologue, Edward Drinker Cope, dont la fameuse guerre des os avec son rival Othniel Charles Marsh avait permis la découverte de célèbres dinosaures. Trois spécimens fossiles incomplets ont été découverts[réf. nécessaire].
